--- a/excel-data-analysis/1-introduction.xlsx
+++ b/excel-data-analysis/1-introduction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTINA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmsmmail-my.sharepoint.com/personal/carlos_saldana5_unmsm_edu_pe/Documents/DOCUMENTOS/REPOSITORIO/PLATZI/excel-basic/excel-data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF031F-D58E-44AE-9231-C2F3B6F133B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FCCF031F-D58E-44AE-9231-C2F3B6F133B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05867973-6DB5-478B-917E-1DB0422CDBD5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{91BC6C85-EFA8-43A7-B091-19AFFED7819F}"/>
   </bookViews>
@@ -235,7 +235,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
+      <xxl21:absoluteUrl r:id="rId3"/>
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="ANA FERNAND."/>
@@ -432,7 +432,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
+      <xxl21:absoluteUrl r:id="rId3"/>
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="LUIS VALLE"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="C2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
